--- a/BAF-Fraud-Detection-Project-Plan.xlsx
+++ b/BAF-Fraud-Detection-Project-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文檔\職業與學習\專案列表 - 數據分析\GitHub Repos\application-fraud-bank-account-opening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B59F3A-7E1C-409B-975C-CB1FEC788078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C91D82E-7F34-4193-86B3-1540D637C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dashboard!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Analysis and Modelling'!$A$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Analysis and Modelling'!$A$1:$H$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Documentation!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
   <si>
     <t>Index</t>
   </si>
@@ -77,12 +77,6 @@
     <t>Exploratory Data Analysis (EDA)</t>
   </si>
   <si>
-    <t>Univariate analysis</t>
-  </si>
-  <si>
-    <t>Feature engineering</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -107,34 +101,16 @@
     <t>XGBoost</t>
   </si>
   <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Interactive Dashboard</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>Numeric variables</t>
-  </si>
-  <si>
-    <t>Categorical variables</t>
-  </si>
-  <si>
     <t>Chi-square test of independence</t>
   </si>
   <si>
-    <t>Missing value treatment</t>
-  </si>
-  <si>
     <t>One-hot encoding</t>
   </si>
   <si>
     <t>On track</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
   </si>
   <si>
     <t>Collect the Feedzai Bank Account Fraud data released on Kaggle.</t>
@@ -148,9 +124,6 @@
 4) (Optional) PowerPoint deck presentation.</t>
   </si>
   <si>
-    <t>Fraud rate analysis by missingness</t>
-  </si>
-  <si>
     <t>Analyse missing data patterns, check if it's correlated with fraud outcome.</t>
   </si>
   <si>
@@ -163,15 +136,6 @@
     <t>Gain initial understanding of the dataset, including variables, data types, characteristics, and distributions.</t>
   </si>
   <si>
-    <t>4.1.2</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>4.2.2</t>
-  </si>
-  <si>
     <t>Deliverable</t>
   </si>
   <si>
@@ -191,6 +155,69 @@
   </si>
   <si>
     <t>BAF-Fraud-Detection-Dashboard</t>
+  </si>
+  <si>
+    <t>Imputation</t>
+  </si>
+  <si>
+    <t>Numeric distribution</t>
+  </si>
+  <si>
+    <t>Boxplot</t>
+  </si>
+  <si>
+    <t>KDEplot</t>
+  </si>
+  <si>
+    <t>Fraud vs Not Fraud behaviour</t>
+  </si>
+  <si>
+    <t>Outlier review</t>
+  </si>
+  <si>
+    <t>Outlier fraud rate</t>
+  </si>
+  <si>
+    <t>Interquartile Range (IQR) method</t>
+  </si>
+  <si>
+    <t>Correlation analysis</t>
+  </si>
+  <si>
+    <t>1) Heatmap, 2) barchart</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Barplots</t>
+  </si>
+  <si>
+    <t>Fraud rate by option</t>
+  </si>
+  <si>
+    <t>Fraud rate by missingness</t>
+  </si>
+  <si>
+    <t>Univariate analysis - Numeric variables</t>
+  </si>
+  <si>
+    <t>Univariate analysis - Categorical variables</t>
+  </si>
+  <si>
+    <t>MinMaxScaler</t>
+  </si>
+  <si>
+    <t>Feature engineering - data cleaning</t>
+  </si>
+  <si>
+    <t>Feature engineering - model assumption validation</t>
+  </si>
+  <si>
+    <t>Variance Influence Factor</t>
+  </si>
+  <si>
+    <t>Variance Influence Factor (VIF)</t>
   </si>
 </sst>
 </file>
@@ -306,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -327,15 +354,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -352,6 +370,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -775,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>3</v>
@@ -793,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -801,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5">
         <v>46062</v>
@@ -810,14 +840,14 @@
         <v>46070</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="20" t="s">
-        <v>47</v>
+      <c r="H2" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -825,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5">
         <v>46062</v>
@@ -834,14 +864,14 @@
         <v>46070</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="20" t="s">
-        <v>47</v>
+      <c r="H3" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -849,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5">
         <v>46070</v>
@@ -858,14 +888,14 @@
         <v>46073</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="20" t="s">
-        <v>47</v>
+      <c r="H4" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -891,15 +921,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
@@ -909,7 +939,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -935,7 +965,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="17">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -949,14 +979,14 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="18">
+      <c r="A3" s="15">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5">
         <v>46062</v>
@@ -973,14 +1003,14 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="18">
+      <c r="A4" s="15">
         <v>1.2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5">
         <v>46062</v>
@@ -997,7 +1027,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1011,14 +1041,14 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>2.1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="5">
         <v>46062</v>
@@ -1035,13 +1065,13 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="19"/>
       <c r="D7" s="5">
         <v>46062</v>
       </c>
@@ -1057,13 +1087,13 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>2.2999999999999998</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="5">
         <v>46062</v>
       </c>
@@ -1079,13 +1109,13 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <v>2.4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="19"/>
       <c r="D9" s="5">
         <v>46064</v>
       </c>
@@ -1101,13 +1131,13 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>2.5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="C10" s="20"/>
       <c r="D10" s="5">
         <v>46064</v>
       </c>
@@ -1123,13 +1153,13 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="17">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="6"/>
@@ -1137,20 +1167,20 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <v>3.1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="5">
-        <v>46067</v>
+        <v>46065</v>
       </c>
       <c r="E12" s="5">
-        <v>46068</v>
+        <v>46065</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>9</v>
@@ -1161,18 +1191,18 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>3.2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="5">
-        <v>46068</v>
+        <v>46065</v>
       </c>
       <c r="E13" s="5">
-        <v>46068</v>
+        <v>46065</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>9</v>
@@ -1183,18 +1213,18 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <v>3.3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="5">
-        <v>46068</v>
+        <v>46065</v>
       </c>
       <c r="E14" s="5">
-        <v>46068</v>
+        <v>46065</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>9</v>
@@ -1204,12 +1234,12 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="17">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="14">
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
@@ -1219,81 +1249,91 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>4.0999999999999996</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="5">
+        <v>46066</v>
+      </c>
+      <c r="E16" s="5">
+        <v>46066</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5">
+        <v>46066</v>
+      </c>
+      <c r="E17" s="5">
+        <v>46066</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5">
+        <v>46066</v>
+      </c>
+      <c r="E18" s="5">
+        <v>46066</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="5">
         <v>46067</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E19" s="5">
         <v>46067</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
-        <v>46067</v>
-      </c>
-      <c r="E17" s="5">
-        <v>46067</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
-        <v>46067</v>
-      </c>
-      <c r="E18" s="5">
-        <v>46067</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="18">
-        <v>4.2</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5">
-        <v>46068</v>
-      </c>
-      <c r="E19" s="5">
-        <v>46068</v>
-      </c>
       <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1303,11 +1343,15 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="D20" s="5">
         <v>46067</v>
       </c>
@@ -1322,32 +1366,30 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5">
-        <v>46067</v>
-      </c>
-      <c r="E21" s="5">
-        <v>46067</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4"/>
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="14">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" s="5">
         <v>46067</v>
       </c>
@@ -1363,32 +1405,40 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="17">
-        <v>5</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
+      <c r="A23" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="5">
+        <v>46068</v>
+      </c>
+      <c r="E23" s="5">
+        <v>46068</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="18">
-        <v>5.0999999999999996</v>
+      <c r="A24" s="15">
+        <v>5.3</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5">
         <v>46068</v>
       </c>
       <c r="E24" s="5">
-        <v>46069</v>
+        <v>46068</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>9</v>
@@ -1399,127 +1449,165 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="18">
-        <v>5.2</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5">
-        <v>46069</v>
-      </c>
-      <c r="E25" s="5">
-        <v>46070</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="4"/>
+      <c r="A25" s="14">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="18">
-        <v>5.3</v>
+      <c r="A26" s="15">
+        <v>6.1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5">
         <v>46069</v>
       </c>
       <c r="E26" s="5">
+        <v>46069</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5">
+        <v>46069</v>
+      </c>
+      <c r="E27" s="5">
+        <v>46069</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5">
+        <v>46069</v>
+      </c>
+      <c r="E28" s="5">
+        <v>46069</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="15">
+        <v>6.4</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5">
         <v>46070</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="17">
-        <v>6</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="18">
-        <v>6.1</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="18">
-        <v>6.2</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="5">
+        <v>46070</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G29" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
+    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="14">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="18"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="15">
+        <v>7.1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="18"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="17">
+      <c r="A33" s="14">
         <v>6</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
@@ -1529,7 +1617,7 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="18">
+      <c r="A34" s="15">
         <v>6.1</v>
       </c>
       <c r="B34" s="4"/>
@@ -1538,12 +1626,12 @@
       <c r="E34" s="5"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="18">
+      <c r="A35" s="15">
         <v>6.2</v>
       </c>
       <c r="B35" s="4"/>
@@ -1552,139 +1640,91 @@
       <c r="E35" s="5"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="17">
-        <v>6</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="18">
-        <v>6.1</v>
-      </c>
+      <c r="A37" s="15"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="G37" s="3"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="18">
-        <v>6.2</v>
-      </c>
+      <c r="A38" s="15"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="G38" s="3"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="18"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="4"/>
+      <c r="A39" s="14">
+        <v>6</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="18"/>
+      <c r="A40" s="15">
+        <v>6.1</v>
+      </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="18"/>
+      <c r="A41" s="15">
+        <v>6.2</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="17">
-        <v>6</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="18">
-        <v>6.1</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="18">
-        <v>6.2</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="18"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="2">
+  <autoFilter ref="A1:H35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -1711,7 +1751,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
@@ -1720,7 +1760,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1746,7 +1786,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="18">
+      <c r="A2" s="15">
         <v>6.1</v>
       </c>
       <c r="B2" s="4"/>
@@ -1760,7 +1800,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="18">
+      <c r="A3" s="15">
         <v>6.2</v>
       </c>
       <c r="B3" s="4"/>
@@ -1774,7 +1814,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="18"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -1810,7 +1850,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
@@ -1819,7 +1859,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1845,7 +1885,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="18">
+      <c r="A2" s="15">
         <v>6.1</v>
       </c>
       <c r="B2" s="4"/>
@@ -1859,7 +1899,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="18">
+      <c r="A3" s="15">
         <v>6.2</v>
       </c>
       <c r="B3" s="4"/>
@@ -1873,7 +1913,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="18"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -1883,7 +1923,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="18"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -1893,7 +1933,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="18"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
